--- a/RequirementEvaluator/tempData/mapWithAllApproaches.xlsx
+++ b/RequirementEvaluator/tempData/mapWithAllApproaches.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\GIT\_Masterarbeit\ProductSamplingFramework\ExternPath\Evaluator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\GIT\_Masterarbeit\Masterarbeit-Data\RequirementEvaluator\tempData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ADD640-8653-46D4-88AB-5C37BE29F20C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810B474F-65C2-4342-AE95-1BC4C7C6FBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="106">
   <si>
     <t>AlgorithmID</t>
   </si>
@@ -333,6 +333,24 @@
   </si>
   <si>
     <t>(Highest Best)</t>
+  </si>
+  <si>
+    <t>SubScore Time</t>
+  </si>
+  <si>
+    <t>SubScore Size</t>
+  </si>
+  <si>
+    <t>SubScore Coverage</t>
+  </si>
+  <si>
+    <t>SubScore Similarity</t>
+  </si>
+  <si>
+    <t>Average Similarity</t>
+  </si>
+  <si>
+    <t>Similarity</t>
   </si>
 </sst>
 </file>
@@ -860,7 +878,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -870,9 +888,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -896,6 +911,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1252,159 +1276,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6D96B2-AAC9-447D-9E69-1329849F6228}">
-  <dimension ref="A2:J9"/>
+  <dimension ref="A4:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="11">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B6">
-        <f>(H2*'Ansatz (Individuell)'!B13) + (I2*'Ansatz (Individuell)'!B14) + ('Ansatz (Individuell)'!B11*J2)</f>
-        <v>1.0013427031401587</v>
-      </c>
-      <c r="C6">
-        <f>(H2*'Ansatz Naive'!B8) + (I2*'Ansatz Naive'!B9) + (J2*'Ansatz Naive'!B10)</f>
+      <c r="B6" s="17">
+        <f>'Ansatz (Individuell)'!B17*'Ansatz (Individuell)'!B18*'Ansatz (Individuell)'!B19*'Ansatz (Individuell)'!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="17">
+        <f>'Ansatz (Individuell)'!B17+'Ansatz (Individuell)'!B18+'Ansatz (Individuell)'!B19+'Ansatz (Individuell)'!B20</f>
+        <v>0.99993852840388542</v>
+      </c>
+      <c r="D6">
+        <f>(B12*'Ansatz Naive'!B8) + (C12*'Ansatz Naive'!B9) + (D12*'Ansatz Naive'!B10)</f>
         <v>6</v>
       </c>
-      <c r="D6">
-        <f>(H2*'Ansatz Naive (Weighted)'!B8) + (I2*'Ansatz Naive (Weighted)'!B9) + (J2*'Ansatz Naive (Weighted)'!B10)</f>
+      <c r="E6">
+        <f>(B12*'Ansatz Naive (Weighted)'!B8) + (C12*'Ansatz Naive (Weighted)'!B9) + (D12*'Ansatz Naive (Weighted)'!B10)</f>
         <v>39.174762656791735</v>
       </c>
-      <c r="E6">
-        <f>(H2*'Ansatz Naive (Inverse)'!B8) + (I2*'Ansatz Naive (Inverse)'!B9) + (J2*'Ansatz Naive (Inverse)'!B10)</f>
+      <c r="F6">
+        <f>(B12*'Ansatz Naive (Inverse)'!B8) + (C12*'Ansatz Naive (Inverse)'!B9) + (D12*'Ansatz Naive (Inverse)'!B10)</f>
         <v>3.9076005961251861</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B7">
-        <f>(H2*'Ansatz (Individuell)'!C13) + (I2*'Ansatz (Individuell)'!C14) + ('Ansatz (Individuell)'!C11*J2)</f>
-        <v>1.0001353712479908</v>
-      </c>
-      <c r="C7">
-        <f>(H2*'Ansatz Naive'!C8) + (I2*'Ansatz Naive'!C9) + (J2*'Ansatz Naive'!C10)</f>
+      <c r="B7" s="17">
+        <f>'Ansatz (Individuell)'!C17*'Ansatz (Individuell)'!C18*'Ansatz (Individuell)'!C19*'Ansatz (Individuell)'!C20</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <f>'Ansatz (Individuell)'!C17+'Ansatz (Individuell)'!C18+'Ansatz (Individuell)'!C19+'Ansatz (Individuell)'!C20</f>
+        <v>0.99993710841917638</v>
+      </c>
+      <c r="D7">
+        <f>(B12*'Ansatz Naive'!C8) + (C12*'Ansatz Naive'!C9) + (D12*'Ansatz Naive'!C10)</f>
         <v>6</v>
       </c>
-      <c r="D7">
-        <f>(H2*'Ansatz Naive (Weighted)'!C8) + (I2*'Ansatz Naive (Weighted)'!C9) + (J2*'Ansatz Naive (Weighted)'!C10)</f>
+      <c r="E7">
+        <f>(B12*'Ansatz Naive (Weighted)'!C8) + (C12*'Ansatz Naive (Weighted)'!C9) + (D12*'Ansatz Naive (Weighted)'!C10)</f>
         <v>4.1260877432884042</v>
       </c>
-      <c r="E7">
-        <f>(H2*'Ansatz Naive (Inverse)'!C8) + (I2*'Ansatz Naive (Inverse)'!C9) + (J2*'Ansatz Naive (Inverse)'!C10)</f>
+      <c r="F7">
+        <f>(B12*'Ansatz Naive (Inverse)'!C8) + (C12*'Ansatz Naive (Inverse)'!C9) + (D12*'Ansatz Naive (Inverse)'!C10)</f>
         <v>20.541647052064878</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B8">
-        <f>(H2*'Ansatz (Individuell)'!D13) + (I2*'Ansatz (Individuell)'!D14) + ('Ansatz (Individuell)'!D11*J2)</f>
-        <v>1.0001517283434831</v>
-      </c>
-      <c r="C8">
-        <f>(H2*'Ansatz Naive'!D8) + (I2*'Ansatz Naive'!D9) + (J2*'Ansatz Naive'!D10)</f>
+      <c r="B8" s="17">
+        <f>'Ansatz (Individuell)'!D17*'Ansatz (Individuell)'!D18*'Ansatz (Individuell)'!D19*'Ansatz (Individuell)'!D20</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <f>'Ansatz (Individuell)'!D17+'Ansatz (Individuell)'!D18+'Ansatz (Individuell)'!D19+'Ansatz (Individuell)'!D20</f>
+        <v>0.9998827367466071</v>
+      </c>
+      <c r="D8">
+        <f>(B12*'Ansatz Naive'!D8) + (C12*'Ansatz Naive'!D9) + (D12*'Ansatz Naive'!D10)</f>
         <v>6</v>
       </c>
-      <c r="D8">
-        <f>(H2*'Ansatz Naive (Weighted)'!D8) + (I2*'Ansatz Naive (Weighted)'!D9) + (J2*'Ansatz Naive (Weighted)'!D10)</f>
+      <c r="E8">
+        <f>(B12*'Ansatz Naive (Weighted)'!D8) + (C12*'Ansatz Naive (Weighted)'!D9) + (D12*'Ansatz Naive (Weighted)'!D10)</f>
         <v>3.9076005961251861</v>
       </c>
-      <c r="E8">
-        <f>(H2*'Ansatz Naive (Inverse)'!D8) + (I2*'Ansatz Naive (Inverse)'!D9) + (J2*'Ansatz Naive (Inverse)'!D10)</f>
+      <c r="F8">
+        <f>(B12*'Ansatz Naive (Inverse)'!D8) + (C12*'Ansatz Naive (Inverse)'!D9) + (D12*'Ansatz Naive (Inverse)'!D10)</f>
         <v>39.174762656791735</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B9">
-        <f>(H2*'Ansatz (Individuell)'!E13) + (I2*'Ansatz (Individuell)'!E14) + ('Ansatz (Individuell)'!E11*J2)</f>
-        <v>1.0001084167716465</v>
-      </c>
-      <c r="C9">
-        <f>(H2*'Ansatz Naive'!E8) + (I2*'Ansatz Naive'!E9) + (J2*'Ansatz Naive'!E10)</f>
+      <c r="B9" s="17">
+        <f>'Ansatz (Individuell)'!E17*'Ansatz (Individuell)'!E18*'Ansatz (Individuell)'!E19*'Ansatz (Individuell)'!E20</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <f>'Ansatz (Individuell)'!E17+'Ansatz (Individuell)'!E18+'Ansatz (Individuell)'!E19+'Ansatz (Individuell)'!E20</f>
+        <v>0.99992790142154664</v>
+      </c>
+      <c r="D9">
+        <f>(B12*'Ansatz Naive'!E8) + (C12*'Ansatz Naive'!E9) + (D12*'Ansatz Naive'!E10)</f>
         <v>6</v>
       </c>
-      <c r="D9">
-        <f>(H2*'Ansatz Naive (Weighted)'!E8) + (I2*'Ansatz Naive (Weighted)'!E9) + (J2*'Ansatz Naive (Weighted)'!E10)</f>
+      <c r="E9">
+        <f>(B12*'Ansatz Naive (Weighted)'!E8) + (C12*'Ansatz Naive (Weighted)'!E9) + (D12*'Ansatz Naive (Weighted)'!E10)</f>
         <v>3.2266438438230791</v>
       </c>
-      <c r="E9">
-        <f>(H2*'Ansatz Naive (Inverse)'!E8) + (I2*'Ansatz Naive (Inverse)'!E9) + (J2*'Ansatz Naive (Inverse)'!E10)</f>
+      <c r="F9">
+        <f>(B12*'Ansatz Naive (Inverse)'!E8) + (C12*'Ansatz Naive (Inverse)'!E9) + (D12*'Ansatz Naive (Inverse)'!E10)</f>
         <v>37.904383347184719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1414,18 +1462,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BD68B9-9079-46F0-9D90-93E36B8546FE}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -1438,10 +1488,10 @@
       <c r="B1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="16">
         <v>86400000</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E1" s="5"/>
@@ -1450,7 +1500,7 @@
       <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <f>dataBusyBoxAllNew!M39</f>
         <v>590033</v>
       </c>
@@ -1549,46 +1599,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12">
+        <f>dataBusyBoxAllNew!Q39</f>
+        <v>0.7524697222222223</v>
+      </c>
+      <c r="C12">
+        <f>dataBusyBoxAllNew!Q79</f>
+        <v>0.74215083333333332</v>
+      </c>
+      <c r="D12">
+        <f>dataBusyBoxAllNew!Q119</f>
+        <v>0.57159888888888888</v>
+      </c>
+      <c r="E12">
+        <f>dataBusyBoxAllNew!Q159</f>
+        <v>0.56603749999999986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>86</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <f>B9/C1</f>
         <v>1.2812315440440441E-3</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f>C9/C1</f>
         <v>7.247966716716717E-5</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f>D9/C1</f>
         <v>3.4465090090090088E-5</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <f>E9/C1</f>
         <v>3.6318193193193194E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>82</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <f>B10/B2</f>
         <v>6.1471596114573714E-5</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <f>C10/B2</f>
         <v>6.2891580823628686E-5</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f>D10/B2</f>
         <v>1.1726325339292751E-4</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <f>E10/B2</f>
         <v>7.2098578453307769E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17">
+        <f>Overview!C12*(1-('Ansatz (Individuell)'!B10/'Ansatz (Individuell)'!B2))</f>
+        <v>0.99993852840388542</v>
+      </c>
+      <c r="C17">
+        <f>Overview!C12*(1-('Ansatz (Individuell)'!C10/'Ansatz (Individuell)'!B2))</f>
+        <v>0.99993710841917638</v>
+      </c>
+      <c r="D17">
+        <f>Overview!C12*(1-('Ansatz (Individuell)'!D10/'Ansatz (Individuell)'!B2))</f>
+        <v>0.9998827367466071</v>
+      </c>
+      <c r="E17">
+        <f>Overview!C12*(1-('Ansatz (Individuell)'!E10/'Ansatz (Individuell)'!B2))</f>
+        <v>0.99992790142154664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1596,6 +1703,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1810,7 +1918,7 @@
       <c r="E1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2022,7 +2130,7 @@
       <c r="E1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2202,7 +2310,7 @@
         <f t="shared" si="1"/>
         <v>110.05498225498225</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2215,9 +2323,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W159"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U160" sqref="U160"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q119" sqref="Q119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
